--- a/temp/Sample_StockPrice.xlsx
+++ b/temp/Sample_StockPrice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
   <si>
     <t xml:space="preserve">Company Code</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outstandingShares </t>
   </si>
   <si>
     <t xml:space="preserve">BSE</t>
@@ -118,9 +121,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -148,21 +155,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -175,385 +183,493 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>532540</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2210.15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>43700</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="E2" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>532540</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2268.31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>43701</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="E3" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>532540</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2153.35</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>43702</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="E4" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>532540</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2356.16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>43703</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="E5" s="0" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>532540</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2153.35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>43704</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="E6" s="0" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>532540</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2154.35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>43705</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="E7" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>532540</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2152.35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>43706</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="E8" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>532540</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2155.35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>43707</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="E9" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>532540</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2156.35</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>43708</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="E10" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>532541</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1510.15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>43700</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="E11" s="0" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>532541</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1567.31</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="n">
         <v>43701</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="E12" s="0" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>532541</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1577.35</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>43702</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="E13" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>532541</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1499.16</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>43703</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="E14" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>532541</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1511.35</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="n">
         <v>43704</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="E15" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>532541</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1561.35</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="n">
         <v>43705</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="E16" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>532541</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1577.35</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>43706</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="E17" s="0" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>532541</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1477.35</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="n">
         <v>43707</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="E18" s="0" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>532541</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1510.15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="n">
         <v>43708</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="E19" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>532542</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1310.15</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="n">
         <v>43700</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="E20" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>532542</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1367.31</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="n">
         <v>43701</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="E21" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>532542</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1377.35</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="n">
         <v>43702</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="E22" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>532542</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1399.16</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="n">
         <v>43703</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="E23" s="0" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>532542</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1311.35</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="n">
         <v>43704</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="E24" s="0" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>532542</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1361.35</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="n">
         <v>43705</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="E25" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>532542</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1377.35</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="n">
         <v>43706</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="E26" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>532542</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1377.35</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="n">
         <v>43707</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="E27" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>532542</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1310.15</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="n">
         <v>43708</v>
       </c>
-    </row>
+      <c r="E28" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
